--- a/Data Files/Calculate Duty/TypeCode 3/Auto_GeStamp_TSCD_TC3_C11.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 3/Auto_GeStamp_TSCD_TC3_C11.xlsx
@@ -235,7 +235,7 @@
     <t xml:space="preserve">2000</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-08-16</t>
+    <t xml:space="preserve">2023-09-01</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>

--- a/Data Files/Calculate Duty/TypeCode 3/Auto_GeStamp_TSCD_TC3_C11.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 3/Auto_GeStamp_TSCD_TC3_C11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89FD327-B257-426F-8D3C-3463EE6F4D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D8FC73-4733-4A47-B46C-F471CC2037A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -291,7 +291,7 @@
     <t>TH</t>
   </si>
   <si>
-    <t>2023-09-16</t>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 3/Auto_GeStamp_TSCD_TC3_C11.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 3/Auto_GeStamp_TSCD_TC3_C11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D8FC73-4733-4A47-B46C-F471CC2037A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FABBAA-D41B-48E9-98EB-AFE0D67184CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2376" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -291,7 +291,7 @@
     <t>TH</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 3/Auto_GeStamp_TSCD_TC3_C11.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 3/Auto_GeStamp_TSCD_TC3_C11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FABBAA-D41B-48E9-98EB-AFE0D67184CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2135D45D-8D2F-4EBE-B58A-63E87274C834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2376" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="90">
   <si>
     <t>contractNo</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>2023-10-16</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -655,7 +658,7 @@
   <dimension ref="A1:BU1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -949,7 +952,7 @@
         <v>88</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>71</v>

--- a/Data Files/Calculate Duty/TypeCode 3/Auto_GeStamp_TSCD_TC3_C11.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 3/Auto_GeStamp_TSCD_TC3_C11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2135D45D-8D2F-4EBE-B58A-63E87274C834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7876EBBA-81B5-41E0-9F87-904977C20290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -291,10 +291,10 @@
     <t>TH</t>
   </si>
   <si>
-    <t>2023-10-16</t>
-  </si>
-  <si>
     <t/>
+  </si>
+  <si>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>
@@ -949,10 +949,10 @@
         <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>71</v>

--- a/Data Files/Calculate Duty/TypeCode 3/Auto_GeStamp_TSCD_TC3_C11.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 3/Auto_GeStamp_TSCD_TC3_C11.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99EFF30-A5A7-45DE-BAC9-B06E99370466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1967FD-CD74-417E-B203-8A7E0F938E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -294,7 +294,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 3/Auto_GeStamp_TSCD_TC3_C11.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 3/Auto_GeStamp_TSCD_TC3_C11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1967FD-CD74-417E-B203-8A7E0F938E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B580E47-E25A-4214-8A88-C99D7073160B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -294,7 +294,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -358,9 +358,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -398,7 +398,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -504,7 +504,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -646,7 +646,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Calculate Duty/TypeCode 3/Auto_GeStamp_TSCD_TC3_C11.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 3/Auto_GeStamp_TSCD_TC3_C11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9613BF-4E59-400B-86FD-84C777C3A751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBCF5AE-6771-4B1A-8071-8164478B6770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -294,7 +294,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -358,9 +358,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -398,7 +398,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -504,7 +504,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -646,7 +646,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Calculate Duty/TypeCode 3/Auto_GeStamp_TSCD_TC3_C11.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 3/Auto_GeStamp_TSCD_TC3_C11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBCF5AE-6771-4B1A-8071-8164478B6770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C8D61B-860D-4FF9-91C0-E11050F1EBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>contractNo</t>
   </si>
@@ -294,7 +294,13 @@
     <t/>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>เมือง</t>
+  </si>
+  <si>
+    <t>นนทบุรี</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>
@@ -657,8 +663,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BU1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="BE1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="BG2" sqref="BG2:BH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,7 +955,7 @@
         <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>88</v>
@@ -1046,6 +1052,12 @@
       </c>
       <c r="BE2" s="1" t="s">
         <v>86</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="BI2" s="1" t="s">
         <v>87</v>

--- a/Data Files/Calculate Duty/TypeCode 3/Auto_GeStamp_TSCD_TC3_C11.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 3/Auto_GeStamp_TSCD_TC3_C11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C8D61B-860D-4FF9-91C0-E11050F1EBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130A0534-B95A-458F-A2C2-0C2F270CCF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -300,7 +300,7 @@
     <t>นนทบุรี</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
